--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94342</v>
+        <v>94343</v>
       </c>
       <c r="D7" t="n">
         <v>32199</v>
       </c>
       <c r="E7" t="n">
-        <v>158176539</v>
+        <v>158181859</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181360</v>
+        <v>181364</v>
       </c>
       <c r="D8" t="n">
         <v>40104</v>
       </c>
       <c r="E8" t="n">
-        <v>651928144</v>
+        <v>652618365</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37915</v>
+        <v>37916</v>
       </c>
       <c r="D13" t="n">
         <v>8466</v>
       </c>
       <c r="E13" t="n">
-        <v>97638190</v>
+        <v>97639732</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>77284</v>
+        <v>77285</v>
       </c>
       <c r="D29" t="n">
         <v>8197</v>
       </c>
       <c r="E29" t="n">
-        <v>428112856</v>
+        <v>428124618</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>14207</v>
+        <v>14208</v>
       </c>
       <c r="D79" t="n">
         <v>2642</v>
       </c>
       <c r="E79" t="n">
-        <v>57008891</v>
+        <v>57128900</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136576</v>
+        <v>136577</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863132204</v>
+        <v>863158438</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="D125" t="n">
         <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>13146580</v>
+        <v>13148080</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50579</v>
+        <v>50581</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168930017</v>
+        <v>168933017</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285058</v>
+        <v>285059</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1211933097</v>
+        <v>1211971202</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562628</v>
+        <v>562632</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285106339</v>
+        <v>1285123656</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367470</v>
+        <v>367476</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847035190</v>
+        <v>2847154599</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115190</v>
+        <v>115191</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>447525396</v>
+        <v>447537564</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357292</v>
+        <v>357297</v>
       </c>
       <c r="D174" t="n">
         <v>69790</v>
       </c>
       <c r="E174" t="n">
-        <v>1018846697</v>
+        <v>1018855897</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125576</v>
+        <v>125578</v>
       </c>
       <c r="D175" t="n">
         <v>18102</v>
       </c>
       <c r="E175" t="n">
-        <v>813809965</v>
+        <v>813925308</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235748</v>
+        <v>235755</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813109665</v>
+        <v>813149347</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6424</v>
+        <v>6427</v>
       </c>
       <c r="D210" t="n">
         <v>979</v>
       </c>
       <c r="E210" t="n">
-        <v>19297530</v>
+        <v>19897530</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220659</v>
+        <v>220660</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1371171731</v>
+        <v>1371177188</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
